--- a/venv/Include/KHS (1605551062).xlsx
+++ b/venv/Include/KHS (1605551062).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Widiari\PycharmProjects\StkiProject\venv\Include\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3120A80D-C104-4711-AC7C-60BE5D68114C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462130EA-E0C6-4D4E-8DAE-365FC1805787}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,73 +40,73 @@
     <t>Nilai</t>
   </si>
   <si>
+    <t>TIC035305</t>
+  </si>
+  <si>
+    <t>SOFT COMPUTING</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>TIC035306</t>
+  </si>
+  <si>
+    <t>STKI</t>
+  </si>
+  <si>
+    <t>TIC039301</t>
+  </si>
+  <si>
+    <t>AUGMENTED REALITY</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>TIC039307</t>
+  </si>
+  <si>
+    <t>NATURAL LANGUAGE PROCESSING</t>
+  </si>
+  <si>
+    <t>TIU035134</t>
+  </si>
+  <si>
+    <t>PRAKTIKUM PROGMOB</t>
+  </si>
+  <si>
+    <t>TIU037239</t>
+  </si>
+  <si>
+    <t>ETIKA PROFESI</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>TIC030304</t>
+  </si>
+  <si>
+    <t>DATA WAREHOUSE</t>
+  </si>
+  <si>
+    <t>TIC035303</t>
+  </si>
+  <si>
+    <t>COMPUTER VISION</t>
+  </si>
+  <si>
+    <t>TIC035304</t>
+  </si>
+  <si>
+    <t>TEKNOLOGI SENSOR DIVAIS</t>
+  </si>
+  <si>
     <t>IPS</t>
   </si>
   <si>
     <t>IPK</t>
-  </si>
-  <si>
-    <t>TIC035305</t>
-  </si>
-  <si>
-    <t>SOFT COMPUTING</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>TIC035306</t>
-  </si>
-  <si>
-    <t>STKI</t>
-  </si>
-  <si>
-    <t>TIC039301</t>
-  </si>
-  <si>
-    <t>AUGMENTED REALITY</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>TIC039307</t>
-  </si>
-  <si>
-    <t>NATURAL LANGUAGE PROCESSING</t>
-  </si>
-  <si>
-    <t>TIU035134</t>
-  </si>
-  <si>
-    <t>PRAKTIKUM PROGMOB</t>
-  </si>
-  <si>
-    <t>TIU037239</t>
-  </si>
-  <si>
-    <t>ETIKA PROFESI</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>TIC030304</t>
-  </si>
-  <si>
-    <t>DATA WAREHOUSE</t>
-  </si>
-  <si>
-    <t>TIC035303</t>
-  </si>
-  <si>
-    <t>COMPUTER VISION</t>
-  </si>
-  <si>
-    <t>TIC035304</t>
-  </si>
-  <si>
-    <t>TEKNOLOGI SENSOR DIVAIS</t>
   </si>
 </sst>
 </file>
@@ -482,18 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,244 +512,200 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
       </c>
       <c r="F2">
         <v>10.5</v>
       </c>
-      <c r="G2">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H2">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>10.5</v>
       </c>
-      <c r="G3">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H3">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
       <c r="F4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H4">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>10.5</v>
       </c>
-      <c r="G5">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H5">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>3.5</v>
       </c>
-      <c r="G6">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H6">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
-      <c r="G7">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H7">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>10.5</v>
       </c>
-      <c r="G8">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H8">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9">
         <v>12</v>
       </c>
-      <c r="G9">
-        <v>3.6041699999999999</v>
-      </c>
-      <c r="H9">
-        <v>3.6041699999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10">
         <v>12</v>
       </c>
-      <c r="G10">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
         <v>3.6041699999999999</v>
       </c>
-      <c r="H10">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
         <v>3.6041699999999999</v>
       </c>
     </row>
